--- a/natmiOut/OldD7/LR-pairs_lrc2p/C3-Lrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/C3-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.470138041467683</v>
+        <v>1.558564</v>
       </c>
       <c r="H2">
-        <v>0.470138041467683</v>
+        <v>4.675692</v>
       </c>
       <c r="I2">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J2">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N2">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q2">
-        <v>3.206991278607138</v>
+        <v>12.673048587976</v>
       </c>
       <c r="R2">
-        <v>3.206991278607138</v>
+        <v>114.057437291784</v>
       </c>
       <c r="S2">
-        <v>3.318000567505522E-05</v>
+        <v>0.0001190215834466891</v>
       </c>
       <c r="T2">
-        <v>3.318000567505522E-05</v>
+        <v>0.0001190215834466892</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.470138041467683</v>
+        <v>1.558564</v>
       </c>
       <c r="H3">
-        <v>0.470138041467683</v>
+        <v>4.675692</v>
       </c>
       <c r="I3">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J3">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q3">
-        <v>114.0906423703965</v>
+        <v>379.3176934115147</v>
       </c>
       <c r="R3">
-        <v>114.0906423703965</v>
+        <v>3413.859240703632</v>
       </c>
       <c r="S3">
-        <v>0.001180398645475764</v>
+        <v>0.003562441364110215</v>
       </c>
       <c r="T3">
-        <v>0.001180398645475764</v>
+        <v>0.003562441364110215</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.470138041467683</v>
+        <v>1.558564</v>
       </c>
       <c r="H4">
-        <v>0.470138041467683</v>
+        <v>4.675692</v>
       </c>
       <c r="I4">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J4">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N4">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q4">
-        <v>41.5232641930493</v>
+        <v>162.0012541713533</v>
       </c>
       <c r="R4">
-        <v>41.5232641930493</v>
+        <v>1458.01128754218</v>
       </c>
       <c r="S4">
-        <v>0.0004296058273568411</v>
+        <v>0.001521468623588974</v>
       </c>
       <c r="T4">
-        <v>0.0004296058273568411</v>
+        <v>0.001521468623588974</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.470138041467683</v>
+        <v>1.558564</v>
       </c>
       <c r="H5">
-        <v>0.470138041467683</v>
+        <v>4.675692</v>
       </c>
       <c r="I5">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J5">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N5">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q5">
-        <v>13.15410722363297</v>
+        <v>52.08525963595732</v>
       </c>
       <c r="R5">
-        <v>13.15410722363297</v>
+        <v>468.767336723616</v>
       </c>
       <c r="S5">
-        <v>0.0001360943371570338</v>
+        <v>0.0004891695974388783</v>
       </c>
       <c r="T5">
-        <v>0.0001360943371570338</v>
+        <v>0.0004891695974388784</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>252.361879689836</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H6">
-        <v>252.361879689836</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I6">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201305</v>
       </c>
       <c r="J6">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201304</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N6">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q6">
-        <v>1721.456839977584</v>
+        <v>2110.466441186671</v>
       </c>
       <c r="R6">
-        <v>1721.456839977584</v>
+        <v>18994.19797068004</v>
       </c>
       <c r="S6">
-        <v>0.01781044685117646</v>
+        <v>0.01982088649762321</v>
       </c>
       <c r="T6">
-        <v>0.01781044685117646</v>
+        <v>0.01982088649762321</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>252.361879689836</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H7">
-        <v>252.361879689836</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I7">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201305</v>
       </c>
       <c r="J7">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201304</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P7">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q7">
-        <v>61241.86180239844</v>
+        <v>63168.48364748432</v>
       </c>
       <c r="R7">
-        <v>61241.86180239844</v>
+        <v>568516.3528273589</v>
       </c>
       <c r="S7">
-        <v>0.633617352098653</v>
+        <v>0.5932600112322802</v>
       </c>
       <c r="T7">
-        <v>0.633617352098653</v>
+        <v>0.5932600112322802</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>252.361879689836</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H8">
-        <v>252.361879689836</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I8">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201305</v>
       </c>
       <c r="J8">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201304</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N8">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q8">
-        <v>22288.96213099976</v>
+        <v>26978.37130390089</v>
       </c>
       <c r="R8">
-        <v>22288.96213099976</v>
+        <v>242805.341735108</v>
       </c>
       <c r="S8">
-        <v>0.2306048959131763</v>
+        <v>0.2533730103780681</v>
       </c>
       <c r="T8">
-        <v>0.2306048959131763</v>
+        <v>0.2533730103780681</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>252.361879689836</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H9">
-        <v>252.361879689836</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I9">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201305</v>
       </c>
       <c r="J9">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201304</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N9">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q9">
-        <v>7060.894741115845</v>
+        <v>8673.855527270453</v>
       </c>
       <c r="R9">
-        <v>7060.894741115845</v>
+        <v>78064.69974543407</v>
       </c>
       <c r="S9">
-        <v>0.07305306040088272</v>
+        <v>0.08146232631215895</v>
       </c>
       <c r="T9">
-        <v>0.07305306040088272</v>
+        <v>0.08146232631215895</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.0635042290981</v>
+        <v>12.18925266666667</v>
       </c>
       <c r="H10">
-        <v>11.0635042290981</v>
+        <v>36.567758</v>
       </c>
       <c r="I10">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="J10">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N10">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q10">
-        <v>75.46839107677208</v>
+        <v>99.11366571779065</v>
       </c>
       <c r="R10">
-        <v>75.46839107677208</v>
+        <v>892.0229914601158</v>
       </c>
       <c r="S10">
-        <v>0.0007808071262676279</v>
+        <v>0.0009308466982545758</v>
       </c>
       <c r="T10">
-        <v>0.0007808071262676279</v>
+        <v>0.0009308466982545759</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.0635042290981</v>
+        <v>12.18925266666667</v>
       </c>
       <c r="H11">
-        <v>11.0635042290981</v>
+        <v>36.567758</v>
       </c>
       <c r="I11">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="J11">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P11">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q11">
-        <v>2684.833374523185</v>
+        <v>2966.576416451397</v>
       </c>
       <c r="R11">
-        <v>2684.833374523185</v>
+        <v>26699.18774806257</v>
       </c>
       <c r="S11">
-        <v>0.02777768283858491</v>
+        <v>0.02786122218742642</v>
       </c>
       <c r="T11">
-        <v>0.02777768283858491</v>
+        <v>0.02786122218742642</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.0635042290981</v>
+        <v>12.18925266666667</v>
       </c>
       <c r="H12">
-        <v>11.0635042290981</v>
+        <v>36.567758</v>
       </c>
       <c r="I12">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="J12">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N12">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q12">
-        <v>977.1445160481383</v>
+        <v>1266.983081484952</v>
       </c>
       <c r="R12">
-        <v>977.1445160481383</v>
+        <v>11402.84773336457</v>
       </c>
       <c r="S12">
-        <v>0.01010968155856904</v>
+        <v>0.01189913630581199</v>
       </c>
       <c r="T12">
-        <v>0.01010968155856904</v>
+        <v>0.01189913630581199</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.0635042290981</v>
+        <v>12.18925266666667</v>
       </c>
       <c r="H13">
-        <v>11.0635042290981</v>
+        <v>36.567758</v>
       </c>
       <c r="I13">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="J13">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N13">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q13">
-        <v>309.5484901505825</v>
+        <v>407.3495794279982</v>
       </c>
       <c r="R13">
-        <v>309.5484901505825</v>
+        <v>3666.146214851984</v>
       </c>
       <c r="S13">
-        <v>0.003202634421993793</v>
+        <v>0.003825708678010084</v>
       </c>
       <c r="T13">
-        <v>0.003202634421993793</v>
+        <v>0.003825708678010084</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.334028421813718</v>
+        <v>0.5133286666666667</v>
       </c>
       <c r="H14">
-        <v>0.334028421813718</v>
+        <v>1.539986</v>
       </c>
       <c r="I14">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="J14">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N14">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q14">
-        <v>2.27853553866718</v>
+        <v>4.173995507574666</v>
       </c>
       <c r="R14">
-        <v>2.27853553866718</v>
+        <v>37.56595956817199</v>
       </c>
       <c r="S14">
-        <v>2.357406538898586E-05</v>
+        <v>3.920095083374462E-05</v>
       </c>
       <c r="T14">
-        <v>2.357406538898586E-05</v>
+        <v>3.920095083374462E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.334028421813718</v>
+        <v>0.5133286666666667</v>
       </c>
       <c r="H15">
-        <v>0.334028421813718</v>
+        <v>1.539986</v>
       </c>
       <c r="I15">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="J15">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P15">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q15">
-        <v>81.06027135291173</v>
+        <v>124.9320822256951</v>
       </c>
       <c r="R15">
-        <v>81.06027135291173</v>
+        <v>1124.388740031256</v>
       </c>
       <c r="S15">
-        <v>0.0008386615459332549</v>
+        <v>0.001173325750830173</v>
       </c>
       <c r="T15">
-        <v>0.0008386615459332549</v>
+        <v>0.001173325750830173</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.334028421813718</v>
+        <v>0.5133286666666667</v>
       </c>
       <c r="H16">
-        <v>0.334028421813718</v>
+        <v>1.539986</v>
       </c>
       <c r="I16">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="J16">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N16">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q16">
-        <v>29.50186792725586</v>
+        <v>53.35673594546555</v>
       </c>
       <c r="R16">
-        <v>29.50186792725586</v>
+        <v>480.21062350919</v>
       </c>
       <c r="S16">
-        <v>0.0003052306851536633</v>
+        <v>0.0005011109328343889</v>
       </c>
       <c r="T16">
-        <v>0.0003052306851536633</v>
+        <v>0.0005011109328343889</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.334028421813718</v>
+        <v>0.5133286666666667</v>
       </c>
       <c r="H17">
-        <v>0.334028421813718</v>
+        <v>1.539986</v>
       </c>
       <c r="I17">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="J17">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N17">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q17">
-        <v>9.345862892868197</v>
+        <v>17.15480203694755</v>
       </c>
       <c r="R17">
-        <v>9.345862892868197</v>
+        <v>154.393218332528</v>
       </c>
       <c r="S17">
-        <v>9.669367855541402E-05</v>
+        <v>0.0001611129072833515</v>
       </c>
       <c r="T17">
-        <v>9.669367855541402E-05</v>
+        <v>0.0001611129072833515</v>
       </c>
     </row>
   </sheetData>
